--- a/Data/t7.1.xlsx
+++ b/Data/t7.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DD269B-F7EC-4E52-BB56-6C1A1C268FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37E925B-1411-44EA-A769-F093A7A49156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="17">
   <si>
     <t>Ano</t>
   </si>
@@ -71,36 +71,6 @@
   </si>
   <si>
     <t>Participação do consumo Residencial em Sergipe no total do Nordeste</t>
-  </si>
-  <si>
-    <t>31/12/2014</t>
-  </si>
-  <si>
-    <t>31/12/2015</t>
-  </si>
-  <si>
-    <t>31/12/2016</t>
-  </si>
-  <si>
-    <t>31/12/2017</t>
-  </si>
-  <si>
-    <t>31/12/2018</t>
-  </si>
-  <si>
-    <t>31/12/2019</t>
-  </si>
-  <si>
-    <t>31/12/2020</t>
-  </si>
-  <si>
-    <t>31/12/2021</t>
-  </si>
-  <si>
-    <t>31/12/2022</t>
-  </si>
-  <si>
-    <t>31/12/2023</t>
   </si>
 </sst>
 </file>
@@ -157,11 +127,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,9 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -490,8 +459,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
+      <c r="A2" s="2">
+        <v>2014</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -504,8 +473,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
+      <c r="A3" s="2">
+        <v>2014</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -518,8 +487,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
+      <c r="A4" s="2">
+        <v>2014</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -532,8 +501,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
+      <c r="A5" s="2">
+        <v>2014</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -546,8 +515,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
+      <c r="A6" s="2">
+        <v>2014</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -560,8 +529,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
+      <c r="A7" s="2">
+        <v>2014</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -574,8 +543,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
+      <c r="A8" s="2">
+        <v>2014</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -588,8 +557,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
+      <c r="A9" s="2">
+        <v>2014</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -602,8 +571,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
+      <c r="A10" s="2">
+        <v>2014</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -616,8 +585,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
+      <c r="A11" s="2">
+        <v>2014</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -630,8 +599,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
+      <c r="A12" s="2">
+        <v>2015</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -644,8 +613,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
+      <c r="A13" s="2">
+        <v>2015</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -658,8 +627,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
+      <c r="A14" s="2">
+        <v>2015</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -672,8 +641,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
+      <c r="A15" s="2">
+        <v>2015</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
@@ -686,8 +655,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
+      <c r="A16" s="2">
+        <v>2015</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -700,8 +669,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
+      <c r="A17" s="2">
+        <v>2015</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -714,8 +683,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>18</v>
+      <c r="A18" s="2">
+        <v>2015</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -728,8 +697,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="2">
+        <v>2015</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -742,8 +711,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>2015</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -756,8 +725,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>18</v>
+      <c r="A21" s="2">
+        <v>2015</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
@@ -770,8 +739,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>19</v>
+      <c r="A22" s="2">
+        <v>2016</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -784,8 +753,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>19</v>
+      <c r="A23" s="2">
+        <v>2016</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -798,8 +767,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>19</v>
+      <c r="A24" s="2">
+        <v>2016</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -812,8 +781,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>19</v>
+      <c r="A25" s="2">
+        <v>2016</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
@@ -826,8 +795,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>19</v>
+      <c r="A26" s="2">
+        <v>2016</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -840,8 +809,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>19</v>
+      <c r="A27" s="2">
+        <v>2016</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
@@ -854,8 +823,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>19</v>
+      <c r="A28" s="2">
+        <v>2016</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
@@ -868,8 +837,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>19</v>
+      <c r="A29" s="2">
+        <v>2016</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -882,8 +851,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>19</v>
+      <c r="A30" s="2">
+        <v>2016</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -896,8 +865,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>19</v>
+      <c r="A31" s="2">
+        <v>2016</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
@@ -910,8 +879,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>20</v>
+      <c r="A32" s="2">
+        <v>2017</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
@@ -924,8 +893,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>20</v>
+      <c r="A33" s="2">
+        <v>2017</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -938,8 +907,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>20</v>
+      <c r="A34" s="2">
+        <v>2017</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -952,8 +921,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>20</v>
+      <c r="A35" s="2">
+        <v>2017</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
@@ -966,8 +935,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>20</v>
+      <c r="A36" s="2">
+        <v>2017</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
@@ -980,8 +949,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>20</v>
+      <c r="A37" s="2">
+        <v>2017</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
@@ -994,8 +963,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>20</v>
+      <c r="A38" s="2">
+        <v>2017</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
@@ -1008,8 +977,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>20</v>
+      <c r="A39" s="2">
+        <v>2017</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
@@ -1022,8 +991,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>20</v>
+      <c r="A40" s="2">
+        <v>2017</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
@@ -1036,8 +1005,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>20</v>
+      <c r="A41" s="2">
+        <v>2017</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
@@ -1050,8 +1019,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>21</v>
+      <c r="A42" s="2">
+        <v>2018</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
@@ -1064,8 +1033,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>21</v>
+      <c r="A43" s="2">
+        <v>2018</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -1078,8 +1047,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>21</v>
+      <c r="A44" s="2">
+        <v>2018</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
@@ -1092,8 +1061,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>21</v>
+      <c r="A45" s="2">
+        <v>2018</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
@@ -1106,8 +1075,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>21</v>
+      <c r="A46" s="2">
+        <v>2018</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
@@ -1120,8 +1089,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>21</v>
+      <c r="A47" s="2">
+        <v>2018</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
@@ -1134,8 +1103,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>21</v>
+      <c r="A48" s="2">
+        <v>2018</v>
       </c>
       <c r="B48" t="s">
         <v>13</v>
@@ -1148,8 +1117,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>21</v>
+      <c r="A49" s="2">
+        <v>2018</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
@@ -1162,8 +1131,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>21</v>
+      <c r="A50" s="2">
+        <v>2018</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
@@ -1176,8 +1145,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>21</v>
+      <c r="A51" s="2">
+        <v>2018</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
@@ -1190,8 +1159,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>22</v>
+      <c r="A52" s="2">
+        <v>2019</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
@@ -1204,8 +1173,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>22</v>
+      <c r="A53" s="2">
+        <v>2019</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -1218,8 +1187,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>22</v>
+      <c r="A54" s="2">
+        <v>2019</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
@@ -1232,8 +1201,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>22</v>
+      <c r="A55" s="2">
+        <v>2019</v>
       </c>
       <c r="B55" t="s">
         <v>9</v>
@@ -1246,8 +1215,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>22</v>
+      <c r="A56" s="2">
+        <v>2019</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
@@ -1260,8 +1229,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>22</v>
+      <c r="A57" s="2">
+        <v>2019</v>
       </c>
       <c r="B57" t="s">
         <v>12</v>
@@ -1274,8 +1243,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>22</v>
+      <c r="A58" s="2">
+        <v>2019</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
@@ -1288,8 +1257,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>22</v>
+      <c r="A59" s="2">
+        <v>2019</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
@@ -1302,8 +1271,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>22</v>
+      <c r="A60" s="2">
+        <v>2019</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
@@ -1316,8 +1285,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>22</v>
+      <c r="A61" s="2">
+        <v>2019</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
@@ -1330,8 +1299,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>23</v>
+      <c r="A62" s="2">
+        <v>2020</v>
       </c>
       <c r="B62" t="s">
         <v>4</v>
@@ -1344,8 +1313,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>23</v>
+      <c r="A63" s="2">
+        <v>2020</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -1358,8 +1327,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>23</v>
+      <c r="A64" s="2">
+        <v>2020</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -1372,8 +1341,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>23</v>
+      <c r="A65" s="2">
+        <v>2020</v>
       </c>
       <c r="B65" t="s">
         <v>9</v>
@@ -1386,8 +1355,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>23</v>
+      <c r="A66" s="2">
+        <v>2020</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
@@ -1400,8 +1369,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>23</v>
+      <c r="A67" s="2">
+        <v>2020</v>
       </c>
       <c r="B67" t="s">
         <v>12</v>
@@ -1414,8 +1383,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>23</v>
+      <c r="A68" s="2">
+        <v>2020</v>
       </c>
       <c r="B68" t="s">
         <v>13</v>
@@ -1428,8 +1397,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>23</v>
+      <c r="A69" s="2">
+        <v>2020</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
@@ -1442,8 +1411,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>23</v>
+      <c r="A70" s="2">
+        <v>2020</v>
       </c>
       <c r="B70" t="s">
         <v>15</v>
@@ -1456,8 +1425,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>23</v>
+      <c r="A71" s="2">
+        <v>2020</v>
       </c>
       <c r="B71" t="s">
         <v>16</v>
@@ -1470,8 +1439,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>24</v>
+      <c r="A72" s="2">
+        <v>2021</v>
       </c>
       <c r="B72" t="s">
         <v>4</v>
@@ -1484,8 +1453,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>24</v>
+      <c r="A73" s="2">
+        <v>2021</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -1498,8 +1467,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>24</v>
+      <c r="A74" s="2">
+        <v>2021</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
@@ -1512,8 +1481,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>24</v>
+      <c r="A75" s="2">
+        <v>2021</v>
       </c>
       <c r="B75" t="s">
         <v>9</v>
@@ -1526,8 +1495,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>24</v>
+      <c r="A76" s="2">
+        <v>2021</v>
       </c>
       <c r="B76" t="s">
         <v>10</v>
@@ -1540,8 +1509,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>24</v>
+      <c r="A77" s="2">
+        <v>2021</v>
       </c>
       <c r="B77" t="s">
         <v>12</v>
@@ -1554,8 +1523,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>24</v>
+      <c r="A78" s="2">
+        <v>2021</v>
       </c>
       <c r="B78" t="s">
         <v>13</v>
@@ -1568,8 +1537,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>24</v>
+      <c r="A79" s="2">
+        <v>2021</v>
       </c>
       <c r="B79" t="s">
         <v>14</v>
@@ -1582,8 +1551,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>24</v>
+      <c r="A80" s="2">
+        <v>2021</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
@@ -1596,8 +1565,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>24</v>
+      <c r="A81" s="2">
+        <v>2021</v>
       </c>
       <c r="B81" t="s">
         <v>16</v>
@@ -1610,8 +1579,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>25</v>
+      <c r="A82" s="2">
+        <v>2022</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
@@ -1624,8 +1593,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>25</v>
+      <c r="A83" s="2">
+        <v>2022</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
@@ -1638,8 +1607,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>25</v>
+      <c r="A84" s="2">
+        <v>2022</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
@@ -1652,8 +1621,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>25</v>
+      <c r="A85" s="2">
+        <v>2022</v>
       </c>
       <c r="B85" t="s">
         <v>9</v>
@@ -1666,8 +1635,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>25</v>
+      <c r="A86" s="2">
+        <v>2022</v>
       </c>
       <c r="B86" t="s">
         <v>10</v>
@@ -1680,8 +1649,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>25</v>
+      <c r="A87" s="2">
+        <v>2022</v>
       </c>
       <c r="B87" t="s">
         <v>12</v>
@@ -1694,8 +1663,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>25</v>
+      <c r="A88" s="2">
+        <v>2022</v>
       </c>
       <c r="B88" t="s">
         <v>13</v>
@@ -1708,8 +1677,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>25</v>
+      <c r="A89" s="2">
+        <v>2022</v>
       </c>
       <c r="B89" t="s">
         <v>14</v>
@@ -1722,8 +1691,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>25</v>
+      <c r="A90" s="2">
+        <v>2022</v>
       </c>
       <c r="B90" t="s">
         <v>15</v>
@@ -1736,8 +1705,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>25</v>
+      <c r="A91" s="2">
+        <v>2022</v>
       </c>
       <c r="B91" t="s">
         <v>16</v>
@@ -1750,8 +1719,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>26</v>
+      <c r="A92" s="2">
+        <v>2023</v>
       </c>
       <c r="B92" t="s">
         <v>4</v>
@@ -1764,8 +1733,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>26</v>
+      <c r="A93" s="2">
+        <v>2023</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -1778,8 +1747,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>26</v>
+      <c r="A94" s="2">
+        <v>2023</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
@@ -1792,8 +1761,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>26</v>
+      <c r="A95" s="2">
+        <v>2023</v>
       </c>
       <c r="B95" t="s">
         <v>9</v>
@@ -1806,8 +1775,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>26</v>
+      <c r="A96" s="2">
+        <v>2023</v>
       </c>
       <c r="B96" t="s">
         <v>10</v>
@@ -1820,8 +1789,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>26</v>
+      <c r="A97" s="2">
+        <v>2023</v>
       </c>
       <c r="B97" t="s">
         <v>12</v>
@@ -1834,8 +1803,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>26</v>
+      <c r="A98" s="2">
+        <v>2023</v>
       </c>
       <c r="B98" t="s">
         <v>13</v>
@@ -1848,8 +1817,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>26</v>
+      <c r="A99" s="2">
+        <v>2023</v>
       </c>
       <c r="B99" t="s">
         <v>14</v>
@@ -1862,8 +1831,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>26</v>
+      <c r="A100" s="2">
+        <v>2023</v>
       </c>
       <c r="B100" t="s">
         <v>15</v>
@@ -1876,8 +1845,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>26</v>
+      <c r="A101" s="2">
+        <v>2023</v>
       </c>
       <c r="B101" t="s">
         <v>16</v>

--- a/Data/t7.1.xlsx
+++ b/Data/t7.1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -469,13 +469,11 @@
           <t>MW</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>1703.28</v>
-      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -487,13 +485,11 @@
           <t>GWh</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>2693.16</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -505,13 +501,11 @@
           <t>GWh</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>1188.17</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -524,142 +518,130 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5896.4</v>
+        <v>8439.209999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2014</v>
+        <v>2005</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Participação do consumo Comercial em Sergipe no total do Brasil</t>
+          <t>Capacidade instalada</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.6506979149483428</v>
-      </c>
+          <t>MW</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2014</v>
+        <v>2005</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Participação do consumo Comercial em Sergipe no total do Nordeste</t>
+          <t>Consumo cativo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>4.327661231457587</v>
-      </c>
+          <t>GWh</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2014</v>
+        <v>2005</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Participação do consumo Industrial em Sergipe no total do Brasil</t>
+          <t>Consumo livre</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0.8910555767839704</v>
-      </c>
+          <t>GWh</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2014</v>
+        <v>2005</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Participação do consumo Industrial em Sergipe no total do Nordeste</t>
+          <t>Geração elétrica</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>GWh</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5.913060811193827</v>
+        <v>9453.209999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Participação do consumo Residencial em Sergipe no total do Brasil</t>
+          <t>Capacidade instalada</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0.7805030693070428</v>
-      </c>
+          <t>MW</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Participação do consumo Residencial em Sergipe no total do Nordeste</t>
+          <t>Consumo cativo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>4.050103270534285</v>
-      </c>
+          <t>GWh</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Capacidade instalada</t>
+          <t>Consumo livre</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MW</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>1703.48</v>
-      </c>
+          <t>GWh</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Consumo cativo</t>
+          <t>Geração elétrica</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -668,34 +650,32 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2736.03</v>
+        <v>10402.29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Consumo livre</t>
+          <t>Capacidade instalada</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GWh</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>1110.73</v>
-      </c>
+          <t>MW</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Geração elétrica</t>
+          <t>Consumo cativo</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -703,121 +683,111 @@
           <t>GWh</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>5233.23</v>
-      </c>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Participação do consumo Comercial em Sergipe no total do Brasil</t>
+          <t>Consumo livre</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0.6548816900843628</v>
-      </c>
+          <t>GWh</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Participação do consumo Comercial em Sergipe no total do Nordeste</t>
+          <t>Geração elétrica</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>GWh</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4.216471349317648</v>
+        <v>10944.81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Participação do consumo Industrial em Sergipe no total do Brasil</t>
+          <t>Capacidade instalada</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0.8869004698029191</v>
-      </c>
+          <t>MW</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Participação do consumo Industrial em Sergipe no total do Nordeste</t>
+          <t>Consumo cativo</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>6.295074887865919</v>
-      </c>
+          <t>GWh</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Participação do consumo Residencial em Sergipe no total do Brasil</t>
+          <t>Consumo livre</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0.8121212500029538</v>
-      </c>
+          <t>GWh</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Participação do consumo Residencial em Sergipe no total do Nordeste</t>
+          <t>Geração elétrica</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>GWh</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4.079953954903838</v>
+        <v>7973.66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -829,13 +799,11 @@
           <t>MW</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>1706.4</v>
-      </c>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -847,13 +815,11 @@
           <t>GWh</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>2722.9</v>
-      </c>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -865,13 +831,11 @@
           <t>GWh</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>1060.63</v>
-      </c>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -884,12 +848,12 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4333.03</v>
+        <v>9707.84</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -902,12 +866,12 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.6763625546370962</v>
+        <v>0.6514427028727766</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -920,12 +884,12 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4.149822022809568</v>
+        <v>4.447816278214072</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -938,12 +902,12 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.8451807687061117</v>
+        <v>0.8419857655335909</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -956,12 +920,12 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6.154888909499054</v>
+        <v>5.378171377194338</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -974,12 +938,12 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.8171693543768297</v>
+        <v>0.7626372156208406</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -992,12 +956,12 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>4.03490608667733</v>
+        <v>4.235230283486108</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1010,12 +974,12 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1707.95</v>
+        <v>1685.41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1028,12 +992,12 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2608.4</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1046,12 +1010,12 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1059.18</v>
+        <v>1149.71</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1064,12 +1028,12 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2979.05</v>
+        <v>10276.99</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1082,12 +1046,12 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.6683807422352682</v>
+        <v>0.6563472056522601</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1100,12 +1064,12 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>4.139671200127951</v>
+        <v>4.474781165990286</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1118,12 +1082,12 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.7722999809030496</v>
+        <v>0.8573484376489029</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1136,12 +1100,12 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5.775518200016315</v>
+        <v>5.441060511855989</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1154,12 +1118,12 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.7999196240190222</v>
+        <v>0.756898777134935</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1172,12 +1136,12 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3.972203004984656</v>
+        <v>4.161981014344406</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1190,12 +1154,12 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1710.88</v>
+        <v>1703.28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1208,12 +1172,12 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2705.22</v>
+        <v>2588.45</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1226,12 +1190,12 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1035.8</v>
+        <v>1236.12</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1244,12 +1208,12 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2834.2</v>
+        <v>6851.34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1262,12 +1226,12 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.7075456801263252</v>
+        <v>0.664915413717978</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1280,12 +1244,12 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4.414980430962221</v>
+        <v>4.396649584910967</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1298,12 +1262,12 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.7331953462751841</v>
+        <v>0.8808544651586663</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1316,12 +1280,12 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>5.567789862317185</v>
+        <v>5.665396555854453</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1334,12 +1298,12 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.8069740217110288</v>
+        <v>0.7839292227653066</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1352,12 +1316,12 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>3.991283255754981</v>
+        <v>4.086094284917852</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1370,12 +1334,12 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1719.35</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1388,12 +1352,12 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2792.13</v>
+        <v>2693.16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1406,12 +1370,12 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>924.4299999999999</v>
+        <v>1188.17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1424,12 +1388,12 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4186.18</v>
+        <v>5953.75</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1442,12 +1406,12 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.7103987913577123</v>
+        <v>0.6506979149483428</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1460,12 +1424,12 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>4.323006913797593</v>
+        <v>4.327661231457587</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1478,12 +1442,12 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.6456948649216641</v>
+        <v>0.8892229666540133</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1496,12 +1460,12 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>4.917069220864161</v>
+        <v>5.890018445404482</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1514,12 +1478,12 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.8517452850592004</v>
+        <v>0.7805030693070428</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1532,12 +1496,12 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>4.171788340673922</v>
+        <v>4.050103270534285</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1550,12 +1514,12 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>3251.76</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1568,12 +1532,12 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2694.07</v>
+        <v>2736.03</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1586,12 +1550,12 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>948.09</v>
+        <v>1110.73</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1604,12 +1568,12 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>8014.68</v>
+        <v>5282.02</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1622,12 +1586,12 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.6970444409303217</v>
+        <v>0.6548816900843628</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1640,12 +1604,12 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>4.352477839612899</v>
+        <v>4.216471349317648</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1658,12 +1622,12 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.6274301502011013</v>
+        <v>0.8863855868629358</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1676,12 +1640,12 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>4.927997872053441</v>
+        <v>6.286465032431471</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1694,12 +1658,12 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.8651700665397073</v>
+        <v>0.8121212500029538</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1712,12 +1676,12 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>4.187888689286721</v>
+        <v>4.079953954903838</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1730,12 +1694,12 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3273.78</v>
+        <v>1706.11</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1748,12 +1712,12 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2689.64</v>
+        <v>2722.9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1766,12 +1730,12 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1184.01</v>
+        <v>1060.63</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1784,12 +1748,12 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>9860.969999999999</v>
+        <v>4374.12</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1802,12 +1766,12 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.6890367530693626</v>
+        <v>0.6763625546370962</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1820,12 +1784,12 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>4.192441005786621</v>
+        <v>4.149822022809568</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1838,12 +1802,12 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.6526808420209627</v>
+        <v>0.8434793084753931</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1856,12 +1820,12 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>5.127964096230932</v>
+        <v>6.152403649279687</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1874,12 +1838,12 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.8722801001022006</v>
+        <v>0.8171693543768297</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1892,12 +1856,12 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>4.166290597341153</v>
+        <v>4.03490608667733</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1910,12 +1874,12 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>3406.28</v>
+        <v>1707.95</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1928,12 +1892,12 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2587.72</v>
+        <v>2608.4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1946,12 +1910,12 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1263.42</v>
+        <v>1059.18</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1964,12 +1928,12 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8759.530000000001</v>
+        <v>3010.63</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1982,12 +1946,12 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.6727790394013976</v>
+        <v>0.6683807422352682</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2000,12 +1964,12 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>4.209232592416225</v>
+        <v>4.139671200127951</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2018,12 +1982,12 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.6221069503865602</v>
+        <v>0.7711304306839603</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2036,12 +2000,12 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>4.698325298334631</v>
+        <v>5.772127200358161</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2054,12 +2018,12 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.8738305947141941</v>
+        <v>0.7999196240190222</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2072,12 +2036,12 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>4.209189424559765</v>
+        <v>3.972203004984656</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2090,12 +2054,12 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>3462.25</v>
+        <v>1710.88</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2108,12 +2072,12 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2663.98</v>
+        <v>2705.22</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2126,12 +2090,12 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1331.29</v>
+        <v>1035.8</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2144,12 +2108,12 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>6701.82</v>
+        <v>2861.56</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2162,12 +2126,12 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.6559624285408765</v>
+        <v>0.7075452811046238</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2180,12 +2144,12 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>4.203761373855742</v>
+        <v>4.414980430962221</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2198,12 +2162,12 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.6084397591793353</v>
+        <v>0.7318831821813987</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2216,12 +2180,12 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>4.148860579239923</v>
+        <v>5.567789862317185</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2234,25 +2198,1105 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.8804565441743737</v>
+        <v>0.8069740217110288</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Participação do consumo Residencial em Sergipe no total do Nordeste</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>3.991283255754981</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Capacidade instalada</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>MW</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>1719.35</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Consumo cativo</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>GWh</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>2792.13</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Consumo livre</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>GWh</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>928.5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Geração elétrica</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>GWh</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>4230.99</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Participação do consumo Comercial em Sergipe no total do Brasil</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0.7103987913577123</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Participação do consumo Comercial em Sergipe no total do Nordeste</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>4.323006913797593</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Participação do consumo Industrial em Sergipe no total do Brasil</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>0.6469628218742819</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Participação do consumo Industrial em Sergipe no total do Nordeste</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>4.932356487163926</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Participação do consumo Residencial em Sergipe no total do Brasil</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>0.8517452850592004</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Participação do consumo Residencial em Sergipe no total do Nordeste</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>4.171788340673922</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Capacidade instalada</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>MW</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>3251.76</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Consumo cativo</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>GWh</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>2694.07</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Consumo livre</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>GWh</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>948.09</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Geração elétrica</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>GWh</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>8111.6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Participação do consumo Comercial em Sergipe no total do Brasil</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>0.6970457923811003</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Participação do consumo Comercial em Sergipe no total do Nordeste</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>4.352477839612899</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Participação do consumo Industrial em Sergipe no total do Brasil</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>0.6278500915748659</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Participação do consumo Industrial em Sergipe no total do Nordeste</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>4.930248666359031</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Participação do consumo Residencial em Sergipe no total do Brasil</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>0.8651700665397073</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Participação do consumo Residencial em Sergipe no total do Nordeste</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>4.187888689286721</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Capacidade instalada</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>MW</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>3273.78</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Consumo cativo</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>GWh</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>2689.64</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Consumo livre</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>GWh</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>1184.01</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Geração elétrica</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>GWh</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>9865.290000000001</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Participação do consumo Comercial em Sergipe no total do Brasil</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>0.6890367530693626</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Participação do consumo Comercial em Sergipe no total do Nordeste</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>4.192441005786621</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Participação do consumo Industrial em Sergipe no total do Brasil</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>0.6528756955902425</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Participação do consumo Industrial em Sergipe no total do Nordeste</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>5.128196282594568</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Participação do consumo Residencial em Sergipe no total do Brasil</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>0.8722801001022006</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Participação do consumo Residencial em Sergipe no total do Nordeste</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>4.166290597341153</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Capacidade instalada</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>MW</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>3406.28</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Consumo cativo</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>GWh</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>2587.72</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Consumo livre</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>GWh</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>1263.42</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Geração elétrica</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>GWh</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>8759.379999999999</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Participação do consumo Comercial em Sergipe no total do Brasil</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>0.6727790394013976</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Participação do consumo Comercial em Sergipe no total do Nordeste</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>4.209232592416225</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Participação do consumo Industrial em Sergipe no total do Brasil</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>0.6219576523906787</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Participação do consumo Industrial em Sergipe no total do Nordeste</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>4.694868133607595</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Participação do consumo Residencial em Sergipe no total do Brasil</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>0.8738305947141941</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Participação do consumo Residencial em Sergipe no total do Nordeste</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>4.209189424559765</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
         <v>2023</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Capacidade instalada</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>MW</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>3462.25</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Consumo cativo</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>GWh</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>2663.98</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Consumo livre</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>GWh</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>1331.29</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Geração elétrica</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>GWh</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>6701.82</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Participação do consumo Comercial em Sergipe no total do Brasil</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>0.6559624285408765</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Participação do consumo Comercial em Sergipe no total do Nordeste</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>4.203761373855742</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Participação do consumo Industrial em Sergipe no total do Brasil</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>0.6082696797328272</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Participação do consumo Industrial em Sergipe no total do Nordeste</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>4.149453565061453</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Participação do consumo Residencial em Sergipe no total do Brasil</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>0.8804565441743737</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B151" t="inlineStr">
         <is>
           <t>Participação do consumo Residencial em Sergipe no total do Nordeste</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
         <v>4.243120675098573</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Capacidade instalada</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>MW</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Consumo cativo</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>GWh</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>2779.99</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Consumo livre</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>GWh</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>1419.86</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Geração elétrica</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>GWh</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>6234.84</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Participação do consumo Comercial em Sergipe no total do Brasil</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>0.6574329775544385</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Participação do consumo Comercial em Sergipe no total do Nordeste</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>4.286107073135139</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Participação do consumo Industrial em Sergipe no total do Brasil</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>0.5776734104229028</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Participação do consumo Industrial em Sergipe no total do Nordeste</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>3.931999983469731</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Participação do consumo Residencial em Sergipe no total do Brasil</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>0.9110982147854586</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Participação do consumo Residencial em Sergipe no total do Nordeste</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>4.394465180586598</v>
       </c>
     </row>
   </sheetData>
